--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamal Elkoumy\PhD\OneDrive - Tartu Ülikool\Differential Privacy\source code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AD1382-2CA4-43A9-B2EF-03E1F07D9A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB1207-7132-484F-8ABB-3C754A763F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2D5D8AB6-B5FA-4CBE-B210-E3C0BAD95574}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,17 +116,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +462,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,22 +474,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -481,19 +497,19 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>164</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>29</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1394</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20</v>
       </c>
     </row>
@@ -501,39 +517,39 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>115</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15214</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1050</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3830</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>376</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>33373</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>645</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>644</v>
       </c>
     </row>
@@ -541,19 +557,19 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4802</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>410</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>44354</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>832</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>828</v>
       </c>
     </row>
@@ -561,19 +577,19 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>150525</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>10035</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -581,19 +597,19 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4699</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>398</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>52217</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1199</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1170</v>
       </c>
     </row>
@@ -601,19 +617,19 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>4231</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>624</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>150291</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1143</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>981</v>
       </c>
     </row>
@@ -621,19 +637,19 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>70</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>561470</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>150370</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>231</v>
       </c>
     </row>
